--- a/src/main/resources/165-mall4cloud/mall4cloud-gateway_structure.xlsx
+++ b/src/main/resources/165-mall4cloud/mall4cloud-gateway_structure.xlsx
@@ -103,7 +103,7 @@
     <t>get()</t>
   </si>
   <si>
-    <t>lambda$get$0(org.springframework.cloud.gateway.route.Route)</t>
+    <t>lambda$get$0(java.util.List,org.springframework.cloud.gateway.route.Route)</t>
   </si>
   <si>
     <t>private</t>
